--- a/output/24/assigned.xlsx
+++ b/output/24/assigned.xlsx
@@ -406,37 +406,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>UID</v>
+      </c>
+      <c r="B1" t="str">
         <v># Match</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>H/F</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>CL</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Ligue</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Jour</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Date/heure de début du match</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Club recevant</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Equipe recevante</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Equipe visiteuse</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Salle</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Responsable du match</v>
       </c>
       <c r="L1" t="str">
         <v>Marqueur principal</v>
@@ -455,41 +455,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
+        <v>1000407</v>
+      </c>
+      <c r="B2">
         <v>361880</v>
       </c>
-      <c r="B2" t="str">
-        <v>F</v>
-      </c>
       <c r="C2" t="str">
+        <v>F</v>
+      </c>
+      <c r="D2" t="str">
         <v>U23</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E2" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F2" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G2" s="1">
         <v>45555.80208332176</v>
       </c>
-      <c r="G2" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H2" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I2" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <v>Aigle U23F2</v>
       </c>
-      <c r="J2" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K2" t="str">
-        <v>Naya Cazeaux</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L2" t="str">
-        <v>Naya Cazeaux</v>
+        <v>Naya Cazeaux (F4)</v>
       </c>
       <c r="M2" t="str">
         <v>+33767421455</v>
@@ -502,492 +502,492 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
+        <v>1000523</v>
+      </c>
+      <c r="B3">
         <v>361884</v>
       </c>
-      <c r="B3" t="str">
-        <v>F</v>
-      </c>
       <c r="C3" t="str">
+        <v>F</v>
+      </c>
+      <c r="D3" t="str">
         <v>U23</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>mar.</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>45559.80208332176</v>
       </c>
-      <c r="G3" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H3" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I3" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <v>Yverdon II U23F2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K3" t="str">
-        <v>Sarah Noël-Weil</v>
-      </c>
       <c r="L3" t="str">
-        <v>Sarah Noël-Weil</v>
+        <v>Sarah Noël-Weil (F4)</v>
       </c>
       <c r="M3" t="str">
         <v>+33767946002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="str">
+        <v>1000438</v>
+      </c>
+      <c r="B4">
         <v>361134</v>
       </c>
-      <c r="B4" t="str">
-        <v>F</v>
-      </c>
       <c r="C4" t="str">
+        <v>F</v>
+      </c>
+      <c r="D4" t="str">
         <v>2L</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>jeu.</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>45561.875</v>
       </c>
-      <c r="G4" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H4" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I4" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>Sainte-Croix I F2</v>
       </c>
-      <c r="J4" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K4" t="str">
-        <v>Franck Essaneme</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L4" t="str">
-        <v>Franck Essaneme</v>
+        <v>Isabelle Goepfert (M20F)</v>
       </c>
       <c r="M4" t="str">
-        <v>+41 76 503 57 71</v>
+        <v>+41 79 127 59 76</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="str">
+        <v>1000411</v>
+      </c>
+      <c r="B5">
         <v>361976</v>
       </c>
-      <c r="B5" t="str">
-        <v>F</v>
-      </c>
       <c r="C5" t="str">
+        <v>F</v>
+      </c>
+      <c r="D5" t="str">
         <v>U20</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E5" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G5" s="1">
         <v>45562.80208332176</v>
       </c>
-      <c r="G5" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H5" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I5" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Sainte-Croix U20F</v>
       </c>
-      <c r="J5" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K5" t="str">
-        <v>Gabriele Macchi</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L5" t="str">
-        <v>Gabriele Macchi</v>
+        <v>Gabriele Macchi (M1)</v>
       </c>
       <c r="M5" t="str">
         <v>+393341249936</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="str">
+        <v>1000440</v>
+      </c>
+      <c r="B6">
         <v>361554</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>H</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>2L</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E6" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G6" s="1">
         <v>45562.854166666664</v>
       </c>
-      <c r="G6" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H6" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I6" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>Sugnens-Cugy I M2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K6" t="str">
-        <v>Charline Mayor</v>
-      </c>
       <c r="L6" t="str">
-        <v>Charline Mayor</v>
+        <v>Charline Mayor (F4)</v>
       </c>
       <c r="M6" t="str">
         <v>?+41 78 784 64 44?</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
+        <v>1000415</v>
+      </c>
+      <c r="B7">
         <v>361740</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>H</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>4L</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E7" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G7" s="1">
         <v>45562.875</v>
       </c>
-      <c r="G7" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H7" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I7" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>La Tour M4</v>
       </c>
-      <c r="J7" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K7" t="str">
-        <v>Ivan Jiménez Ferreiro</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L7" t="str">
-        <v>Ivan Jiménez Ferreiro</v>
+        <v>Ivan Jiménez Ferreiro (M18G)</v>
       </c>
       <c r="M7" t="str">
         <v>+41 79 596 33 51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="str">
+        <v>1000427</v>
+      </c>
+      <c r="B8">
         <v>361890</v>
       </c>
-      <c r="B8" t="str">
-        <v>F</v>
-      </c>
       <c r="C8" t="str">
+        <v>F</v>
+      </c>
+      <c r="D8" t="str">
         <v>U23</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E8" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G8" s="1">
         <v>45569.80208332176</v>
       </c>
-      <c r="G8" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H8" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I8" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>Montreux U23F2</v>
       </c>
-      <c r="J8" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K8" t="str">
-        <v>Cyrian Allais</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L8" t="str">
-        <v>Cyrian Allais</v>
+        <v>Franck Essaneme (M4)</v>
       </c>
       <c r="M8" t="str">
+        <v>+41 76 503 57 71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>1000378</v>
+      </c>
+      <c r="B9">
+        <v>361144</v>
+      </c>
+      <c r="C9" t="str">
+        <v>F</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2L</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2024 | 2L</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45569.854166666664</v>
+      </c>
+      <c r="H9" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Lausanne I F2</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Les Cèdres F2</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Salle omnisports de Grand-Vennes 2</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Cyrian Allais (M4)</v>
+      </c>
+      <c r="M9" t="str">
         <v>+41 78 627 62 61</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>361144</v>
-      </c>
-      <c r="B9" t="str">
-        <v>F</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2L</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2024 | 2L</v>
-      </c>
-      <c r="E9" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45569.854166666664</v>
-      </c>
-      <c r="G9" t="str">
-        <v>VBC Lausanne</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Lausanne I F2</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Les Cèdres F2</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Salle omnisports de Grand-Vennes 2</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Isabelle Goepfert</v>
-      </c>
-      <c r="L9" t="str">
-        <v>Isabelle Goepfert</v>
-      </c>
-      <c r="M9" t="str">
-        <v>+41 79 127 59 76</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="str">
+        <v>1000480</v>
+      </c>
+      <c r="B10">
         <v>361338</v>
       </c>
-      <c r="B10" t="str">
-        <v>F</v>
-      </c>
       <c r="C10" t="str">
+        <v>F</v>
+      </c>
+      <c r="D10" t="str">
         <v>4L</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E10" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="F10" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G10" s="1">
         <v>45569.875</v>
       </c>
-      <c r="G10" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H10" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I10" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>Ecublens II F4</v>
       </c>
-      <c r="J10" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K10" t="str">
-        <v>Sebastiano Conforti</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L10" t="str">
-        <v>Sebastiano Conforti</v>
+        <v>Sebastiano Conforti (M1)</v>
       </c>
       <c r="M10" t="str">
         <v>+41 79 657 26 39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
+        <v>1000362</v>
+      </c>
+      <c r="B11">
         <v>361892</v>
       </c>
-      <c r="B11" t="str">
-        <v>F</v>
-      </c>
       <c r="C11" t="str">
+        <v>F</v>
+      </c>
+      <c r="D11" t="str">
         <v>U23</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E11" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="F11" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G11" s="1">
         <v>45576.80208332176</v>
       </c>
-      <c r="G11" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H11" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I11" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>BOPP/Froidev U23F2</v>
       </c>
-      <c r="J11" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K11" t="str">
-        <v>Eva Botti Balaguer</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L11" t="str">
-        <v>Eva Botti Balaguer</v>
+        <v>Eva Botti Balaguer (M20F)</v>
       </c>
       <c r="M11" t="str">
         <v>+4176 246 34 76</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="str">
+        <v>1000383</v>
+      </c>
+      <c r="B12">
         <v>361564</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <v>H</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>2L</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E12" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G12" s="1">
         <v>45576.854166666664</v>
       </c>
-      <c r="G12" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H12" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I12" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>La Côte I M2</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K12" t="str">
-        <v>Francisco Crispim Amaral</v>
-      </c>
       <c r="L12" t="str">
-        <v>Francisco Crispim Amaral</v>
+        <v>Francisco Crispim Amaral (M18G)</v>
       </c>
       <c r="M12" t="str">
         <v>+4176 268 92 08</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="str">
+        <v>1000499</v>
+      </c>
+      <c r="B13">
         <v>361751</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <v>H</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>4L</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E13" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G13" s="1">
         <v>45576.875</v>
       </c>
-      <c r="G13" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H13" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I13" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>Montreux II M4</v>
       </c>
-      <c r="J13" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K13" t="str">
-        <v>Emeric Gay des Combes</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L13" t="str">
-        <v>Emeric Gay des Combes</v>
+        <v>Emeric Gay des Combes (M18G)</v>
       </c>
       <c r="M13" t="str">
         <v>+4176 615 88 45</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="str">
+        <v>1000469</v>
+      </c>
+      <c r="B14">
         <v>362298</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <v>H</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>U18</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <v>2024 | U18</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v>sam.</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>45591.416666666664</v>
       </c>
-      <c r="G14" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H14" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I14" t="str">
         <v>Lausanne U18G</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>Littoral U18G</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
-      <c r="K14" t="str">
-        <v>Arno Gröbli</v>
-      </c>
       <c r="L14" t="str">
-        <v>Arno Gröbli</v>
+        <v>Arno Gröbli (M4)</v>
       </c>
       <c r="M14" t="str">
         <v xml:space="preserve">+41 79 911 93 51 </v>
@@ -997,2422 +997,2422 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="str">
+        <v>1000535</v>
+      </c>
+      <c r="B15">
         <v>353295</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <v>H</v>
-      </c>
-      <c r="C15" t="str">
-        <v>1L</v>
       </c>
       <c r="D15" t="str">
         <v>1L</v>
       </c>
       <c r="E15" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F15" t="str">
         <v>sam.</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>45591.625</v>
       </c>
-      <c r="G15" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H15" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I15" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J15" t="str">
         <v>VBC Cheseaux</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K15" t="str">
-        <v>Marie Perrot</v>
-      </c>
       <c r="L15" t="str">
-        <v>Marie Perrot</v>
+        <v>Marie Perrot (F2)</v>
       </c>
       <c r="M15" t="str">
         <v>+41078886841</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="str">
+        <v>1000392</v>
+      </c>
+      <c r="B16">
         <v>361348</v>
       </c>
-      <c r="B16" t="str">
-        <v>F</v>
-      </c>
       <c r="C16" t="str">
+        <v>F</v>
+      </c>
+      <c r="D16" t="str">
         <v>4L</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>mar.</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>45594.854166666664</v>
       </c>
-      <c r="G16" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H16" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I16" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>Pailly F4</v>
       </c>
-      <c r="J16" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K16" t="str">
-        <v>Jeanne Roger</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L16" t="str">
-        <v>Jeanne Roger</v>
+        <v>Jeanne Roger (M23F)</v>
       </c>
       <c r="M16" t="str">
         <v>+41763162219</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="str">
+        <v>1000530</v>
+      </c>
+      <c r="B17">
         <v>362054</v>
       </c>
-      <c r="B17" t="str">
-        <v>F</v>
-      </c>
       <c r="C17" t="str">
+        <v>F</v>
+      </c>
+      <c r="D17" t="str">
         <v>U20</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E17" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G17" s="1">
         <v>45597.80208332176</v>
       </c>
-      <c r="G17" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H17" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I17" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>BOPP/Froidev U20F</v>
       </c>
-      <c r="J17" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K17" t="str">
-        <v>Mathilde Bois</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L17" t="str">
-        <v>Mathilde Bois</v>
+        <v>Mathilde Bois (F4)</v>
       </c>
       <c r="M17" t="str">
         <v>+41764109678</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="str">
+        <v>1000444</v>
+      </c>
+      <c r="B18">
         <v>353303</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <v>H</v>
-      </c>
-      <c r="C18" t="str">
-        <v>1L</v>
       </c>
       <c r="D18" t="str">
         <v>1L</v>
       </c>
       <c r="E18" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F18" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G18" s="1">
         <v>45597.854166666664</v>
       </c>
-      <c r="G18" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H18" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I18" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J18" t="str">
         <v>VBC Bulle</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K18" t="str">
-        <v>Yanis Leroy</v>
-      </c>
       <c r="L18" t="str">
-        <v>Yanis Leroy</v>
+        <v>Yanis Leroy (M4)</v>
       </c>
       <c r="M18" t="str">
         <v>+41782071213</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="str">
+        <v>1000380</v>
+      </c>
+      <c r="B19">
         <v>361154</v>
       </c>
-      <c r="B19" t="str">
-        <v>F</v>
-      </c>
       <c r="C19" t="str">
+        <v>F</v>
+      </c>
+      <c r="D19" t="str">
         <v>2L</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E19" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="F19" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G19" s="1">
         <v>45597.875</v>
       </c>
-      <c r="G19" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H19" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I19" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>Le Mont I F2</v>
       </c>
-      <c r="J19" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K19" t="str">
-        <v>Martha Ysabel Riquelme Perez</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L19" t="str">
-        <v>Martha Ysabel Riquelme Perez</v>
+        <v>Martha Ysabel Riquelme Perez (F4)</v>
       </c>
       <c r="M19" t="str">
         <v>+41786097245</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="str">
+        <v>1000443</v>
+      </c>
+      <c r="B20">
         <v>362000</v>
       </c>
-      <c r="B20" t="str">
-        <v>F</v>
-      </c>
       <c r="C20" t="str">
+        <v>F</v>
+      </c>
+      <c r="D20" t="str">
         <v>U20</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E20" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="F20" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G20" s="1">
         <v>45604.80208332176</v>
       </c>
-      <c r="G20" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H20" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I20" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>La Côte U20F</v>
       </c>
-      <c r="J20" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K20" t="str">
-        <v>Alyssa Pasini</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L20" t="str">
-        <v>Alyssa Pasini</v>
+        <v>Alyssa Pasini (F4)</v>
       </c>
       <c r="M20" t="str">
         <v>+41789261170</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="str">
+        <v>1000410</v>
+      </c>
+      <c r="B21">
         <v>361574</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <v>H</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <v>2L</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E21" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="F21" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G21" s="1">
         <v>45604.854166666664</v>
       </c>
-      <c r="G21" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H21" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I21" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>Bussigny I M2</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K21" t="str">
-        <v>Nadine Eliasson</v>
-      </c>
       <c r="L21" t="str">
-        <v>Nadine Eliasson</v>
+        <v>Nadine Eliasson (F4)</v>
       </c>
       <c r="M21" t="str">
         <v>+41793271979</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="str">
+        <v>1000481</v>
+      </c>
+      <c r="B22">
         <v>361760</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <v>H</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <v>4L</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E22" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="F22" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G22" s="1">
         <v>45604.875</v>
       </c>
-      <c r="G22" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H22" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I22" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>La Côte IV M4</v>
       </c>
-      <c r="J22" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K22" t="str">
-        <v>Morgane Fouvy</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L22" t="str">
-        <v>Morgane Fouvy</v>
+        <v>Morgane Fouvy (F4)</v>
       </c>
       <c r="M22" t="str">
         <v>+41794557898</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="str">
+        <v>1000476</v>
+      </c>
+      <c r="B23">
         <v>361163</v>
       </c>
-      <c r="B23" t="str">
-        <v>F</v>
-      </c>
       <c r="C23" t="str">
+        <v>F</v>
+      </c>
+      <c r="D23" t="str">
         <v>2L</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E23" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="F23" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G23" s="1">
         <v>45611.854166666664</v>
       </c>
-      <c r="G23" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H23" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I23" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>Lutry-Lavaux I F2</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K23" t="str">
-        <v>Mégane Devenoge</v>
-      </c>
       <c r="L23" t="str">
-        <v>Mégane Devenoge</v>
+        <v>Mégane Devenoge (M23F)</v>
       </c>
       <c r="M23" t="str">
         <v>+41765028665</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="str">
+        <v>1000405</v>
+      </c>
+      <c r="B24">
         <v>361357</v>
       </c>
-      <c r="B24" t="str">
-        <v>F</v>
-      </c>
       <c r="C24" t="str">
+        <v>F</v>
+      </c>
+      <c r="D24" t="str">
         <v>4L</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E24" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="F24" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G24" s="1">
         <v>45611.875</v>
       </c>
-      <c r="G24" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H24" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I24" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>Cossonay II F4</v>
       </c>
-      <c r="J24" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K24" t="str">
-        <v>Céleste Fidanza</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L24" t="str">
-        <v>Céleste Fidanza</v>
+        <v>Céleste Fidanza (M23F)</v>
       </c>
       <c r="M24" t="str">
         <v>+41765120923</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="str">
+        <v>1000377</v>
+      </c>
+      <c r="B25">
         <v>361771</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <v>H</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <v>4L</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <v>mar.</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>45615.854166666664</v>
       </c>
-      <c r="G25" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H25" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I25" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>La Côte III M4</v>
       </c>
-      <c r="J25" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K25" t="str">
-        <v>Aayusha Tamang</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L25" t="str">
-        <v>Aayusha Tamang</v>
+        <v>Aayusha Tamang (M23F)</v>
       </c>
       <c r="M25" t="str">
         <v>+41766756743</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="str">
+        <v>1000486</v>
+      </c>
+      <c r="B26">
         <v>361909</v>
       </c>
-      <c r="B26" t="str">
-        <v>F</v>
-      </c>
       <c r="C26" t="str">
+        <v>F</v>
+      </c>
+      <c r="D26" t="str">
         <v>U23</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E26" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F26" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G26" s="1">
         <v>45618.80208332176</v>
       </c>
-      <c r="G26" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H26" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I26" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <v>Yverdon II U23F2</v>
       </c>
-      <c r="J26" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K26" t="str">
-        <v>Blanca Solis Lutz</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L26" t="str">
-        <v>Blanca Solis Lutz</v>
+        <v>Blanca Solis Lutz (M20F)</v>
       </c>
       <c r="M26" t="str">
         <v>+41766233888</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="str">
+        <v>1000419</v>
+      </c>
+      <c r="B27">
         <v>353318</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <v>H</v>
-      </c>
-      <c r="C27" t="str">
-        <v>1L</v>
       </c>
       <c r="D27" t="str">
         <v>1L</v>
       </c>
       <c r="E27" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F27" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F27" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G27" s="1">
         <v>45618.854166666664</v>
       </c>
-      <c r="G27" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H27" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I27" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J27" t="str">
         <v>Bienne Volleyboys</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K27" t="str">
-        <v>Julia Stefanini</v>
-      </c>
       <c r="L27" t="str">
-        <v>Julia Stefanini</v>
+        <v>Julia Stefanini (M20F)</v>
       </c>
       <c r="M27" t="str">
         <v>+41774480303</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="str">
+        <v>1000505</v>
+      </c>
+      <c r="B28">
         <v>361583</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <v>H</v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <v>2L</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E28" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="F28" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G28" s="1">
         <v>45618.875</v>
       </c>
-      <c r="G28" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H28" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I28" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>Lutry-Lavaux II M2</v>
       </c>
-      <c r="J28" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K28" t="str">
-        <v>Luzia Da Cruz</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L28" t="str">
-        <v>Luzia Da Cruz</v>
+        <v>Luzia Da Cruz (M20F)</v>
       </c>
       <c r="M28" t="str">
         <v>+4178 805 78 28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="str">
+        <v>1000468</v>
+      </c>
+      <c r="B29">
         <v>362019</v>
       </c>
-      <c r="B29" t="str">
-        <v>F</v>
-      </c>
       <c r="C29" t="str">
+        <v>F</v>
+      </c>
+      <c r="D29" t="str">
         <v>U20</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E29" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="F29" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G29" s="1">
         <v>45625.80208332176</v>
       </c>
-      <c r="G29" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H29" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I29" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <v>Montreux U20F</v>
       </c>
-      <c r="J29" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K29" t="str">
-        <v>Lisa Schoenenberger</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L29" t="str">
-        <v>Lisa Schoenenberger</v>
+        <v>Lisa Schoenenberger (M23F)</v>
       </c>
       <c r="M29" t="str">
         <v>+41768187255</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="str">
+        <v>1000525</v>
+      </c>
+      <c r="B30">
         <v>361173</v>
       </c>
-      <c r="B30" t="str">
-        <v>F</v>
-      </c>
       <c r="C30" t="str">
+        <v>F</v>
+      </c>
+      <c r="D30" t="str">
         <v>2L</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E30" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="F30" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G30" s="1">
         <v>45625.854166666664</v>
       </c>
-      <c r="G30" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H30" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I30" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <v>Sugnens-Cugy I F2</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K30" t="str">
-        <v>Nicolas Kieffer</v>
-      </c>
       <c r="L30" t="str">
-        <v>Nicolas Kieffer</v>
+        <v>Nicolas Kieffer (M2)</v>
       </c>
       <c r="M30" t="str">
         <v>+41779841723</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="str">
+        <v>1000424</v>
+      </c>
+      <c r="B31">
         <v>361365</v>
       </c>
-      <c r="B31" t="str">
-        <v>F</v>
-      </c>
       <c r="C31" t="str">
+        <v>F</v>
+      </c>
+      <c r="D31" t="str">
         <v>4L</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E31" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="F31" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G31" s="1">
         <v>45625.875</v>
       </c>
-      <c r="G31" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H31" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I31" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <v>Epalinges III F4</v>
       </c>
-      <c r="J31" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K31" t="str">
-        <v>Lara Tayeh</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L31" t="str">
-        <v>Lara Tayeh</v>
+        <v>Lara Tayeh (M23F)</v>
       </c>
       <c r="M31" t="str">
         <v>+41783100110</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="str">
+        <v>1000451</v>
+      </c>
+      <c r="B32">
         <v>361916</v>
       </c>
-      <c r="B32" t="str">
-        <v>F</v>
-      </c>
       <c r="C32" t="str">
+        <v>F</v>
+      </c>
+      <c r="D32" t="str">
         <v>U23</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E32" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="F32" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G32" s="1">
         <v>45632.80208332176</v>
       </c>
-      <c r="G32" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H32" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I32" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <v>Ecublens U23F2</v>
       </c>
-      <c r="J32" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K32" t="str">
-        <v>Sibylle Baechtold</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L32" t="str">
-        <v>Sibylle Baechtold</v>
+        <v>Sibylle Baechtold (F4)</v>
       </c>
       <c r="M32" t="str">
         <v>+41795836721</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="str">
+        <v>1000407</v>
+      </c>
+      <c r="B33">
         <v>361591</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <v>H</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <v>2L</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E33" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="F33" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G33" s="1">
         <v>45632.854166666664</v>
       </c>
-      <c r="G33" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H33" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I33" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <v>Littoral I M2</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K33" t="str">
-        <v>Naya Cazeaux</v>
-      </c>
       <c r="L33" t="str">
-        <v>Naya Cazeaux</v>
+        <v>Naya Cazeaux (F4)</v>
       </c>
       <c r="M33" t="str">
         <v>+33767421455</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="str">
+        <v>1000523</v>
+      </c>
+      <c r="B34">
         <v>361780</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <v>H</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <v>4L</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E34" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="F34" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G34" s="1">
         <v>45632.875</v>
       </c>
-      <c r="G34" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H34" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I34" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <v>Haute-Broye M4</v>
       </c>
-      <c r="J34" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K34" t="str">
-        <v>Sarah Noël-Weil</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L34" t="str">
-        <v>Sarah Noël-Weil</v>
+        <v>Sarah Noël-Weil (F4)</v>
       </c>
       <c r="M34" t="str">
         <v>+33767946002</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="str">
+        <v>1000493</v>
+      </c>
+      <c r="B35">
         <v>361595</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <v>H</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <v>2L</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <v>mar.</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>45636.854166666664</v>
       </c>
-      <c r="G35" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H35" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I35" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <v>Orbe M2</v>
       </c>
-      <c r="J35" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K35" t="str">
-        <v>Elise Péclard</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L35" t="str">
-        <v>Elise Péclard</v>
+        <v>Elise Péclard (M23F)</v>
       </c>
       <c r="M35" t="str">
         <v>+41786536978</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="str">
+        <v>1000367</v>
+      </c>
+      <c r="B36">
         <v>362030</v>
       </c>
-      <c r="B36" t="str">
-        <v>F</v>
-      </c>
       <c r="C36" t="str">
+        <v>F</v>
+      </c>
+      <c r="D36" t="str">
         <v>U20</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E36" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="F36" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G36" s="1">
         <v>45639.80208332176</v>
       </c>
-      <c r="G36" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H36" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I36" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <v>Ecublens U20F</v>
       </c>
-      <c r="J36" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K36" t="str">
-        <v>Emmeline Guyaz</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L36" t="str">
-        <v>Emmeline Guyaz</v>
+        <v>Emmeline Guyaz (M23F)</v>
       </c>
       <c r="M36" t="str">
         <v>+41787083207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="str">
+        <v>1000435</v>
+      </c>
+      <c r="B37">
         <v>353336</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <v>H</v>
-      </c>
-      <c r="C37" t="str">
-        <v>1L</v>
       </c>
       <c r="D37" t="str">
         <v>1L</v>
       </c>
       <c r="E37" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F37" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G37" s="1">
         <v>45639.854166666664</v>
       </c>
-      <c r="G37" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H37" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I37" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J37" t="str">
         <v>Groupement Sportif du CERN</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K37" t="str">
-        <v>Martina Valvassori</v>
-      </c>
       <c r="L37" t="str">
-        <v>Martina Valvassori</v>
+        <v>Martina Valvassori (M23F)</v>
       </c>
       <c r="M37" t="str">
         <v>+417873275558</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="str">
+        <v>1000400</v>
+      </c>
+      <c r="B38">
         <v>361785</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <v>H</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <v>4L</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E38" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="F38" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G38" s="1">
         <v>45639.875</v>
       </c>
-      <c r="G38" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H38" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I38" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <v>Bussigny II M4</v>
       </c>
-      <c r="J38" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K38" t="str">
-        <v>Delia Rein</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L38" t="str">
-        <v>Delia Rein</v>
+        <v>Delia Rein (F2)</v>
       </c>
       <c r="M38" t="str">
         <v>+41787796428</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="str">
+        <v>1000361</v>
+      </c>
+      <c r="B39">
         <v>361730</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <v>H</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <v>4L</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E39" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="F39" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G39" s="1">
         <v>45646.854166666664</v>
       </c>
-      <c r="G39" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H39" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I39" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <v>Pailly M4</v>
       </c>
-      <c r="J39" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K39" t="str">
-        <v>Benoît Brot</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L39" t="str">
-        <v>Benoît Brot</v>
+        <v>Benoît Brot (M1)</v>
       </c>
       <c r="M39" t="str">
         <v>+41767321263</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="str">
+        <v>1000401</v>
+      </c>
+      <c r="B40">
         <v>361964</v>
       </c>
-      <c r="B40" t="str">
-        <v>F</v>
-      </c>
       <c r="C40" t="str">
+        <v>F</v>
+      </c>
+      <c r="D40" t="str">
         <v>U20</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <v>sam.</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>45647.416666666664</v>
       </c>
-      <c r="G40" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H40" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I40" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <v>Orbe U20F</v>
       </c>
-      <c r="J40" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K40" t="str">
-        <v>Florent Spielmann</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L40" t="str">
-        <v>Florent Spielmann</v>
+        <v>Florent Spielmann (M4)</v>
       </c>
       <c r="M40" t="str">
         <v>+41787651751</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="str">
+        <v>1000458</v>
+      </c>
+      <c r="B41">
         <v>361182</v>
       </c>
-      <c r="B41" t="str">
-        <v>F</v>
-      </c>
       <c r="C41" t="str">
+        <v>F</v>
+      </c>
+      <c r="D41" t="str">
         <v>2L</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <v>sam.</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>45647.541666666664</v>
       </c>
-      <c r="G41" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H41" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I41" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <v>Cossonay I F2</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K41" t="str">
-        <v>Driss Ben Mimoun</v>
-      </c>
       <c r="L41" t="str">
-        <v>Driss Ben Mimoun</v>
+        <v>Driss Ben Mimoun (M2)</v>
       </c>
       <c r="M41" t="str">
         <v>+41788783625</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="str">
+        <v>1000436</v>
+      </c>
+      <c r="B42">
         <v>353346</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
         <v>H</v>
-      </c>
-      <c r="C42" t="str">
-        <v>1L</v>
       </c>
       <c r="D42" t="str">
         <v>1L</v>
       </c>
       <c r="E42" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F42" t="str">
         <v>sam.</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>45647.625</v>
       </c>
-      <c r="G42" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H42" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I42" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J42" t="str">
         <v>Colombier Volley</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K42" t="str">
-        <v>Thierry Briquet</v>
-      </c>
       <c r="L42" t="str">
-        <v>Thierry Briquet</v>
+        <v>Thierry Briquet (M4)</v>
       </c>
       <c r="M42" t="str">
         <v>+41789044484</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="str">
+        <v>1000398</v>
+      </c>
+      <c r="B43">
         <v>361193</v>
       </c>
-      <c r="B43" t="str">
-        <v>F</v>
-      </c>
       <c r="C43" t="str">
+        <v>F</v>
+      </c>
+      <c r="D43" t="str">
         <v>2L</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E43" t="str">
+      <c r="F43" t="str">
         <v>mar.</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>45664.854166666664</v>
       </c>
-      <c r="G43" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H43" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I43" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <v>Epalinges II F2</v>
       </c>
-      <c r="J43" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K43" t="str">
-        <v>Ruslana Munteanu</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L43" t="str">
-        <v>Ruslana Munteanu</v>
+        <v>Ruslana Munteanu (M23F)</v>
       </c>
       <c r="M43" t="str">
         <v>+41789077010</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="str">
+        <v>1000430</v>
+      </c>
+      <c r="B44">
         <v>353351</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <v>H</v>
-      </c>
-      <c r="C44" t="str">
-        <v>1L</v>
       </c>
       <c r="D44" t="str">
         <v>1L</v>
       </c>
       <c r="E44" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F44" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F44" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G44" s="1">
         <v>45667.854166666664</v>
       </c>
-      <c r="G44" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H44" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I44" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J44" t="str">
         <v>VBC Sainte-Croix</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K44" t="str">
-        <v>Sarah Cavin</v>
-      </c>
       <c r="L44" t="str">
-        <v>Sarah Cavin</v>
+        <v>Sarah Cavin (F2)</v>
       </c>
       <c r="M44" t="str">
         <v>+4179 121 21 07</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="str">
+        <v>1000484</v>
+      </c>
+      <c r="B45">
         <v>361378</v>
       </c>
-      <c r="B45" t="str">
-        <v>F</v>
-      </c>
       <c r="C45" t="str">
+        <v>F</v>
+      </c>
+      <c r="D45" t="str">
         <v>4L</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E45" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="F45" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G45" s="1">
         <v>45667.875</v>
       </c>
-      <c r="G45" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H45" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I45" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <v>Orbe II F4</v>
       </c>
-      <c r="J45" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K45" t="str">
-        <v>Margaux Lari</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L45" t="str">
-        <v>Margaux Lari</v>
+        <v>Margaux Lari (M23F)</v>
       </c>
       <c r="M45" t="str">
         <v>+4179 749 38 22</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="str">
+        <v>1000479</v>
+      </c>
+      <c r="B46">
         <v>362042</v>
       </c>
-      <c r="B46" t="str">
-        <v>F</v>
-      </c>
       <c r="C46" t="str">
+        <v>F</v>
+      </c>
+      <c r="D46" t="str">
         <v>U20</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E46" t="str">
+      <c r="F46" t="str">
         <v>sam.</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>45675.416666666664</v>
       </c>
-      <c r="G46" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H46" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I46" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <v>Cossonay U20F</v>
       </c>
-      <c r="J46" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K46" t="str">
-        <v>Aweys Haji</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L46" t="str">
-        <v>Aweys Haji</v>
+        <v>Aweys Haji (M4)</v>
       </c>
       <c r="M46" t="str">
         <v>+41789140192</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="str">
+        <v>1000360</v>
+      </c>
+      <c r="B47">
         <v>361604</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <v>H</v>
       </c>
-      <c r="C47" t="str">
+      <c r="D47" t="str">
         <v>2L</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E47" t="str">
+      <c r="F47" t="str">
         <v>sam.</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>45675.541666666664</v>
       </c>
-      <c r="G47" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H47" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I47" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <v>Montreux I M2</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K47" t="str">
-        <v>Léo Diserens</v>
-      </c>
       <c r="L47" t="str">
-        <v>Léo Diserens</v>
+        <v>Léo Diserens (M4)</v>
       </c>
       <c r="M47" t="str">
         <v>+41793239970</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="str">
+        <v>1000409</v>
+      </c>
+      <c r="B48">
         <v>353354</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <v>H</v>
-      </c>
-      <c r="C48" t="str">
-        <v>1L</v>
       </c>
       <c r="D48" t="str">
         <v>1L</v>
       </c>
       <c r="E48" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F48" t="str">
         <v>sam.</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>45675.625</v>
       </c>
-      <c r="G48" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H48" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I48" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J48" t="str">
         <v>TV Murten Volleyball</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K48" t="str">
-        <v>Luisa Orlik</v>
-      </c>
       <c r="L48" t="str">
-        <v>Luisa Orlik</v>
+        <v>Luisa Orlik (F2)</v>
       </c>
       <c r="M48" t="str">
         <v>+41795124580</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="str">
+        <v>1000395</v>
+      </c>
+      <c r="B49">
         <v>361388</v>
       </c>
-      <c r="B49" t="str">
-        <v>F</v>
-      </c>
       <c r="C49" t="str">
+        <v>F</v>
+      </c>
+      <c r="D49" t="str">
         <v>4L</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
         <v>mar.</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>45678.854166666664</v>
       </c>
-      <c r="G49" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H49" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I49" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <v>Le Mont II F4</v>
       </c>
-      <c r="J49" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K49" t="str">
-        <v>Gaëlle Sandoz</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L49" t="str">
-        <v>Gaëlle Sandoz</v>
+        <v>Alix Laure-Anne Ambresin (M20F)</v>
       </c>
       <c r="M49" t="str">
-        <v>+41792909858</v>
+        <v>+4179 756 72 40</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="str">
+        <v>1000357</v>
+      </c>
+      <c r="B50">
         <v>362048</v>
       </c>
-      <c r="B50" t="str">
-        <v>F</v>
-      </c>
       <c r="C50" t="str">
+        <v>F</v>
+      </c>
+      <c r="D50" t="str">
         <v>U20</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E50" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="F50" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G50" s="1">
         <v>45681.80208332176</v>
       </c>
-      <c r="G50" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H50" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I50" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <v>Littoral U20F</v>
       </c>
-      <c r="J50" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K50" t="str">
-        <v>Renaud Durussel</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L50" t="str">
-        <v>Renaud Durussel</v>
+        <v>Renaud Durussel (M1)</v>
       </c>
       <c r="M50" t="str">
         <v>+4179 822 80 27</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="str">
+        <v>1000348</v>
+      </c>
+      <c r="B51">
         <v>361203</v>
       </c>
-      <c r="B51" t="str">
-        <v>F</v>
-      </c>
       <c r="C51" t="str">
+        <v>F</v>
+      </c>
+      <c r="D51" t="str">
         <v>2L</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E51" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="F51" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G51" s="1">
         <v>45681.854166666664</v>
       </c>
-      <c r="G51" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H51" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I51" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <v>Montreux I F2</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K51" t="str">
-        <v>Anthony Pham</v>
-      </c>
       <c r="L51" t="str">
-        <v>Anthony Pham</v>
+        <v>Anthony Pham (M2)</v>
       </c>
       <c r="M51" t="str">
         <v>+41791383355</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="str">
+        <v>1000470</v>
+      </c>
+      <c r="B52">
         <v>361935</v>
       </c>
-      <c r="B52" t="str">
-        <v>F</v>
-      </c>
       <c r="C52" t="str">
+        <v>F</v>
+      </c>
+      <c r="D52" t="str">
         <v>U23</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E52" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="F52" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G52" s="1">
         <v>45688.80208332176</v>
       </c>
-      <c r="G52" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H52" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I52" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <v>Ecublens U23F2</v>
       </c>
-      <c r="J52" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K52" t="str">
-        <v>Alix Laure-Anne Ambresin</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L52" t="str">
-        <v>Alix Laure-Anne Ambresin</v>
+        <v>Benoit Emery (M1)</v>
       </c>
       <c r="M52" t="str">
-        <v>+4179 756 72 40</v>
+        <v>+41795046909</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="str">
+        <v>1000351</v>
+      </c>
+      <c r="B53">
         <v>361614</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <v>H</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
         <v>2L</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E53" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="F53" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G53" s="1">
         <v>45688.854166666664</v>
       </c>
-      <c r="G53" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H53" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I53" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <v>LUC III M2</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K53" t="str">
-        <v>Benoit Emery</v>
-      </c>
       <c r="L53" t="str">
-        <v>Benoit Emery</v>
+        <v>Etienne Basset (M1)</v>
       </c>
       <c r="M53" t="str">
-        <v>+41795046909</v>
+        <v>+41797074369</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="str">
+        <v>1000513</v>
+      </c>
+      <c r="B54">
         <v>361805</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
         <v>H</v>
       </c>
-      <c r="C54" t="str">
+      <c r="D54" t="str">
         <v>4L</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E54" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="F54" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G54" s="1">
         <v>45688.875</v>
       </c>
-      <c r="G54" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H54" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I54" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <v>Le Mont II M4</v>
       </c>
-      <c r="J54" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K54" t="str">
-        <v>Etienne Basset</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L54" t="str">
-        <v>Etienne Basset</v>
+        <v>Ania Hofer (F2)</v>
       </c>
       <c r="M54" t="str">
-        <v>+41797074369</v>
+        <v>+41798929485</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="str">
+        <v>1000366</v>
+      </c>
+      <c r="B55">
         <v>361398</v>
       </c>
-      <c r="B55" t="str">
-        <v>F</v>
-      </c>
       <c r="C55" t="str">
+        <v>F</v>
+      </c>
+      <c r="D55" t="str">
         <v>4L</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
         <v>mar.</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>45692.854166666664</v>
       </c>
-      <c r="G55" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H55" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I55" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <v>La Tour I F4</v>
       </c>
-      <c r="J55" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K55" t="str">
-        <v>Léa Sirat</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L55" t="str">
-        <v>Léa Sirat</v>
+        <v>Gaëlle Sandoz (M23F)</v>
       </c>
       <c r="M55" t="str">
-        <v>+41797199694</v>
+        <v>+41792909858</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="str">
+        <v>1000440</v>
+      </c>
+      <c r="B56">
         <v>361941</v>
       </c>
-      <c r="B56" t="str">
-        <v>F</v>
-      </c>
       <c r="C56" t="str">
+        <v>F</v>
+      </c>
+      <c r="D56" t="str">
         <v>U23</v>
       </c>
-      <c r="D56" t="str">
+      <c r="E56" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E56" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="F56" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G56" s="1">
         <v>45695.80208332176</v>
       </c>
-      <c r="G56" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H56" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I56" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <v>La Côte U23F2</v>
       </c>
-      <c r="J56" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K56" t="str">
-        <v>Charline Mayor</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L56" t="str">
-        <v>Charline Mayor</v>
+        <v>Charline Mayor (F4)</v>
       </c>
       <c r="M56" t="str">
         <v>?+41 78 784 64 44?</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="str">
+        <v>1000415</v>
+      </c>
+      <c r="B57">
         <v>353376</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <v>H</v>
-      </c>
-      <c r="C57" t="str">
-        <v>1L</v>
       </c>
       <c r="D57" t="str">
         <v>1L</v>
       </c>
       <c r="E57" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F57" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F57" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G57" s="1">
         <v>45695.854166666664</v>
       </c>
-      <c r="G57" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H57" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I57" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J57" t="str">
         <v>Chênois Genève Volleyball</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K57" t="str">
-        <v>Ivan Jiménez Ferreiro</v>
-      </c>
       <c r="L57" t="str">
-        <v>Ivan Jiménez Ferreiro</v>
+        <v>Ivan Jiménez Ferreiro (M18G)</v>
       </c>
       <c r="M57" t="str">
         <v>+41 79 596 33 51</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="str">
+        <v>1000383</v>
+      </c>
+      <c r="B58">
         <v>361214</v>
       </c>
-      <c r="B58" t="str">
-        <v>F</v>
-      </c>
       <c r="C58" t="str">
+        <v>F</v>
+      </c>
+      <c r="D58" t="str">
         <v>2L</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E58" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="F58" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G58" s="1">
         <v>45695.875</v>
       </c>
-      <c r="G58" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H58" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I58" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <v>Cheseaux III F2</v>
       </c>
-      <c r="J58" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K58" t="str">
-        <v>Francisco Crispim Amaral</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L58" t="str">
-        <v>Francisco Crispim Amaral</v>
+        <v>Francisco Crispim Amaral (M18G)</v>
       </c>
       <c r="M58" t="str">
         <v>+4176 268 92 08</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="str">
+        <v>1000414</v>
+      </c>
+      <c r="B59">
         <v>362067</v>
       </c>
-      <c r="B59" t="str">
-        <v>F</v>
-      </c>
       <c r="C59" t="str">
+        <v>F</v>
+      </c>
+      <c r="D59" t="str">
         <v>U20</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E59" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="F59" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G59" s="1">
         <v>45702.80208332176</v>
       </c>
-      <c r="G59" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H59" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I59" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J59" t="str">
         <v>Bussigny U20F</v>
       </c>
-      <c r="J59" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K59" t="str">
-        <v>Annabelle Selzer</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L59" t="str">
-        <v>Annabelle Selzer</v>
+        <v>Léa Sirat (M23F)</v>
       </c>
       <c r="M59" t="str">
-        <v>+41799425960</v>
+        <v>+41797199694</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="str">
+        <v>1000515</v>
+      </c>
+      <c r="B60">
         <v>361944</v>
       </c>
-      <c r="B60" t="str">
-        <v>F</v>
-      </c>
       <c r="C60" t="str">
+        <v>F</v>
+      </c>
+      <c r="D60" t="str">
         <v>U23</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <v>2024 | U23</v>
       </c>
-      <c r="E60" t="str">
+      <c r="F60" t="str">
         <v>sam.</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>45703.416666666664</v>
       </c>
-      <c r="G60" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H60" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I60" t="str">
         <v>Lausanne U23F2</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <v>Cossonay II U23F2</v>
       </c>
-      <c r="J60" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K60" t="str">
-        <v>Ania Hofer</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L60" t="str">
-        <v>Ania Hofer</v>
+        <v>Jessica De Jesus Bernarda (F2)</v>
       </c>
       <c r="M60" t="str">
-        <v>+41798929485</v>
+        <v>+41798971421</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" t="str">
+        <v>1000446</v>
+      </c>
+      <c r="B61">
         <v>362272</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <v>H</v>
       </c>
-      <c r="C61" t="str">
+      <c r="D61" t="str">
         <v>U18</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E61" t="str">
         <v>2024 | U18</v>
       </c>
-      <c r="E61" t="str">
+      <c r="F61" t="str">
         <v>sam.</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>45703.416666666664</v>
       </c>
-      <c r="G61" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H61" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I61" t="str">
         <v>Lausanne U18G</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J61" t="str">
         <v>Bussigny U18G</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <v>Salle omnisports de Grand-Vennes 1</v>
       </c>
-      <c r="K61" t="str">
-        <v>Jessica De Jesus Bernarda</v>
-      </c>
       <c r="L61" t="str">
-        <v>Jessica De Jesus Bernarda</v>
+        <v>Aure Line Perrin (F2)</v>
       </c>
       <c r="M61" t="str">
-        <v>+41798971421</v>
+        <v>+41799611159</v>
       </c>
       <c r="P61" t="str">
         <v>2 matchs en 2 sets - 362272 / 362293</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" t="str">
+        <v>1000452</v>
+      </c>
+      <c r="B62">
         <v>361816</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <v>H</v>
       </c>
-      <c r="C62" t="str">
+      <c r="D62" t="str">
         <v>4L</v>
       </c>
-      <c r="D62" t="str">
+      <c r="E62" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E62" t="str">
+      <c r="F62" t="str">
         <v>sam.</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>45703.541666666664</v>
       </c>
-      <c r="G62" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H62" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I62" t="str">
         <v>Lausanne III M4</v>
       </c>
-      <c r="I62" t="str">
+      <c r="J62" t="str">
         <v>LUC IV M4</v>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K62" t="str">
-        <v>Aure Line Perrin</v>
-      </c>
       <c r="L62" t="str">
-        <v>Aure Line Perrin</v>
+        <v>Evangelia Bolli (F2)</v>
       </c>
       <c r="M62" t="str">
-        <v>+41799611159</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" t="str">
+        <v>1000438</v>
+      </c>
+      <c r="B63">
         <v>353382</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <v>H</v>
-      </c>
-      <c r="C63" t="str">
-        <v>1L</v>
       </c>
       <c r="D63" t="str">
         <v>1L</v>
       </c>
       <c r="E63" t="str">
+        <v>1L</v>
+      </c>
+      <c r="F63" t="str">
         <v>sam.</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>45703.625</v>
       </c>
-      <c r="G63" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H63" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I63" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J63" t="str">
         <v>VBC Fully</v>
       </c>
-      <c r="J63" t="str">
+      <c r="K63" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K63" t="str">
-        <v>Evangelia Bolli</v>
-      </c>
       <c r="L63" t="str">
-        <v>Evangelia Bolli</v>
+        <v>Isabelle Goepfert (M20F)</v>
       </c>
       <c r="M63" t="str">
-        <v>NA</v>
+        <v>+41 79 127 59 76</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="str">
+        <v>1000489</v>
+      </c>
+      <c r="B64">
         <v>362071</v>
       </c>
-      <c r="B64" t="str">
-        <v>F</v>
-      </c>
       <c r="C64" t="str">
+        <v>F</v>
+      </c>
+      <c r="D64" t="str">
         <v>U20</v>
       </c>
-      <c r="D64" t="str">
+      <c r="E64" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E64" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="F64" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G64" s="1">
         <v>45716.80208332176</v>
       </c>
-      <c r="G64" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H64" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I64" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I64" t="str">
+      <c r="J64" t="str">
         <v>Lutry-Lavaux U20F</v>
       </c>
-      <c r="J64" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K64" t="str">
-        <v>Franck Essaneme</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L64" t="str">
-        <v>Franck Essaneme</v>
+        <v>Annabelle Selzer (M23F)</v>
       </c>
       <c r="M64" t="str">
-        <v>+41 76 503 57 71</v>
+        <v>+41799425960</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="str">
+        <v>1000427</v>
+      </c>
+      <c r="B65">
         <v>353390</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <v>H</v>
-      </c>
-      <c r="C65" t="str">
-        <v>1L</v>
       </c>
       <c r="D65" t="str">
         <v>1L</v>
       </c>
       <c r="E65" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F65" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F65" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G65" s="1">
         <v>45716.854166666664</v>
       </c>
-      <c r="G65" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H65" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I65" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J65" t="str">
         <v>Meyrin VBC</v>
       </c>
-      <c r="J65" t="str">
+      <c r="K65" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K65" t="str">
-        <v>Cyrian Allais</v>
-      </c>
       <c r="L65" t="str">
-        <v>Cyrian Allais</v>
+        <v>Franck Essaneme (M4)</v>
       </c>
       <c r="M65" t="str">
+        <v>+41 76 503 57 71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>1000378</v>
+      </c>
+      <c r="B66">
+        <v>361406</v>
+      </c>
+      <c r="C66" t="str">
+        <v>F</v>
+      </c>
+      <c r="D66" t="str">
+        <v>4L</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2024 | 4L</v>
+      </c>
+      <c r="F66" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G66" s="1">
+        <v>45716.875</v>
+      </c>
+      <c r="H66" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Lausanne II F4</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Lutry-Lavaux II F4</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Salle omnisports de Grand-Vennes 3</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Cyrian Allais (M4)</v>
+      </c>
+      <c r="M66" t="str">
         <v>+41 78 627 62 61</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66">
-        <v>361406</v>
-      </c>
-      <c r="B66" t="str">
-        <v>F</v>
-      </c>
-      <c r="C66" t="str">
+    <row r="67">
+      <c r="A67" t="str">
+        <v>1000535</v>
+      </c>
+      <c r="B67">
+        <v>361826</v>
+      </c>
+      <c r="C67" t="str">
+        <v>H</v>
+      </c>
+      <c r="D67" t="str">
         <v>4L</v>
       </c>
-      <c r="D66" t="str">
+      <c r="E67" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E66" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F66" s="1">
-        <v>45716.875</v>
-      </c>
-      <c r="G66" t="str">
-        <v>VBC Lausanne</v>
-      </c>
-      <c r="H66" t="str">
-        <v>Lausanne II F4</v>
-      </c>
-      <c r="I66" t="str">
-        <v>Lutry-Lavaux II F4</v>
-      </c>
-      <c r="J66" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
-      <c r="K66" t="str">
-        <v>Arno Gröbli</v>
-      </c>
-      <c r="L66" t="str">
-        <v>Arno Gröbli</v>
-      </c>
-      <c r="M66" t="str">
+      <c r="F67" t="str">
+        <v>mar.</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45720.854166666664</v>
+      </c>
+      <c r="H67" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Lausanne III M4</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Sugnens-Cugy II M4</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Salle omnisports de Grand-Vennes 3</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Marie Perrot (F2)</v>
+      </c>
+      <c r="M67" t="str">
+        <v>+41078886841</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>1000469</v>
+      </c>
+      <c r="B68">
+        <v>361952</v>
+      </c>
+      <c r="C68" t="str">
+        <v>F</v>
+      </c>
+      <c r="D68" t="str">
+        <v>U23</v>
+      </c>
+      <c r="E68" t="str">
+        <v>2024 | U23</v>
+      </c>
+      <c r="F68" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G68" s="1">
+        <v>45723.80208332176</v>
+      </c>
+      <c r="H68" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Lausanne U23F2</v>
+      </c>
+      <c r="J68" t="str">
+        <v>La Côte U23F2</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Salle omnisports de Grand-Vennes 3</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Arno Gröbli (M4)</v>
+      </c>
+      <c r="M68" t="str">
         <v xml:space="preserve">+41 79 911 93 51 </v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67">
-        <v>361826</v>
-      </c>
-      <c r="B67" t="str">
+    <row r="69">
+      <c r="A69" t="str">
+        <v>1000362</v>
+      </c>
+      <c r="B69">
+        <v>353396</v>
+      </c>
+      <c r="C69" t="str">
         <v>H</v>
-      </c>
-      <c r="C67" t="str">
-        <v>4L</v>
-      </c>
-      <c r="D67" t="str">
-        <v>2024 | 4L</v>
-      </c>
-      <c r="E67" t="str">
-        <v>mar.</v>
-      </c>
-      <c r="F67" s="1">
-        <v>45720.854166666664</v>
-      </c>
-      <c r="G67" t="str">
-        <v>VBC Lausanne</v>
-      </c>
-      <c r="H67" t="str">
-        <v>Lausanne III M4</v>
-      </c>
-      <c r="I67" t="str">
-        <v>Sugnens-Cugy II M4</v>
-      </c>
-      <c r="J67" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
-      <c r="K67" t="str">
-        <v>Jeanne Roger</v>
-      </c>
-      <c r="L67" t="str">
-        <v>Jeanne Roger</v>
-      </c>
-      <c r="M67" t="str">
-        <v>+41763162219</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>361952</v>
-      </c>
-      <c r="B68" t="str">
-        <v>F</v>
-      </c>
-      <c r="C68" t="str">
-        <v>U23</v>
-      </c>
-      <c r="D68" t="str">
-        <v>2024 | U23</v>
-      </c>
-      <c r="E68" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F68" s="1">
-        <v>45723.80208332176</v>
-      </c>
-      <c r="G68" t="str">
-        <v>VBC Lausanne</v>
-      </c>
-      <c r="H68" t="str">
-        <v>Lausanne U23F2</v>
-      </c>
-      <c r="I68" t="str">
-        <v>La Côte U23F2</v>
-      </c>
-      <c r="J68" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
-      <c r="K68" t="str">
-        <v>Isabelle Goepfert</v>
-      </c>
-      <c r="L68" t="str">
-        <v>Isabelle Goepfert</v>
-      </c>
-      <c r="M68" t="str">
-        <v>+41 79 127 59 76</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>353396</v>
-      </c>
-      <c r="B69" t="str">
-        <v>H</v>
-      </c>
-      <c r="C69" t="str">
-        <v>1L</v>
       </c>
       <c r="D69" t="str">
         <v>1L</v>
       </c>
       <c r="E69" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F69" s="1">
+        <v>1L</v>
+      </c>
+      <c r="F69" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G69" s="1">
         <v>45723.854166666664</v>
       </c>
-      <c r="G69" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H69" t="str">
         <v>VBC Lausanne</v>
       </c>
       <c r="I69" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="J69" t="str">
         <v>VBC Servette Star-Onex</v>
       </c>
-      <c r="J69" t="str">
+      <c r="K69" t="str">
         <v>Salle omnisports de Grand-Vennes 1-3</v>
       </c>
-      <c r="K69" t="str">
-        <v>Marie Perrot</v>
-      </c>
       <c r="L69" t="str">
-        <v>Marie Perrot</v>
+        <v>Eva Botti Balaguer (M20F)</v>
       </c>
       <c r="M69" t="str">
-        <v>+41078886841</v>
+        <v>+4176 246 34 76</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="str">
+        <v>1000499</v>
+      </c>
+      <c r="B70">
         <v>361632</v>
       </c>
-      <c r="B70" t="str">
+      <c r="C70" t="str">
         <v>H</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <v>2L</v>
       </c>
-      <c r="D70" t="str">
+      <c r="E70" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E70" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="F70" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G70" s="1">
         <v>45723.875</v>
       </c>
-      <c r="G70" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H70" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I70" t="str">
         <v>Lausanne II M2</v>
       </c>
-      <c r="I70" t="str">
+      <c r="J70" t="str">
         <v>Les Cèdres M2</v>
       </c>
-      <c r="J70" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K70" t="str">
-        <v>Eva Botti Balaguer</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L70" t="str">
-        <v>Eva Botti Balaguer</v>
+        <v>Emeric Gay des Combes (M18G)</v>
       </c>
       <c r="M70" t="str">
-        <v>+4176 246 34 76</v>
+        <v>+4176 615 88 45</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="str">
+        <v>1000392</v>
+      </c>
+      <c r="B71">
         <v>362086</v>
       </c>
-      <c r="B71" t="str">
-        <v>F</v>
-      </c>
       <c r="C71" t="str">
+        <v>F</v>
+      </c>
+      <c r="D71" t="str">
         <v>U20</v>
       </c>
-      <c r="D71" t="str">
+      <c r="E71" t="str">
         <v>2024 | U20</v>
       </c>
-      <c r="E71" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="F71" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G71" s="1">
         <v>45730.80208332176</v>
       </c>
-      <c r="G71" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H71" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I71" t="str">
         <v>Lausanne U20F</v>
       </c>
-      <c r="I71" t="str">
+      <c r="J71" t="str">
         <v>La Tour U20F</v>
       </c>
-      <c r="J71" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K71" t="str">
-        <v>Emeric Gay des Combes</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L71" t="str">
-        <v>Emeric Gay des Combes</v>
+        <v>Jeanne Roger (M23F)</v>
       </c>
       <c r="M71" t="str">
-        <v>+4176 615 88 45</v>
+        <v>+41763162219</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" t="str">
+        <v>1000476</v>
+      </c>
+      <c r="B72">
         <v>361233</v>
       </c>
-      <c r="B72" t="str">
-        <v>F</v>
-      </c>
       <c r="C72" t="str">
+        <v>F</v>
+      </c>
+      <c r="D72" t="str">
         <v>2L</v>
       </c>
-      <c r="D72" t="str">
+      <c r="E72" t="str">
         <v>2024 | 2L</v>
       </c>
-      <c r="E72" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="F72" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G72" s="1">
         <v>45730.854166666664</v>
       </c>
-      <c r="G72" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H72" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I72" t="str">
         <v>Lausanne I F2</v>
       </c>
-      <c r="I72" t="str">
+      <c r="J72" t="str">
         <v>La Côte I F2</v>
       </c>
-      <c r="J72" t="str">
+      <c r="K72" t="str">
         <v>Salle omnisports de Grand-Vennes 2</v>
       </c>
-      <c r="K72" t="str">
-        <v>Mégane Devenoge</v>
-      </c>
       <c r="L72" t="str">
-        <v>Mégane Devenoge</v>
+        <v>Mégane Devenoge (M23F)</v>
       </c>
       <c r="M72" t="str">
         <v>+41765028665</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" t="str">
+        <v>1000405</v>
+      </c>
+      <c r="B73">
         <v>361414</v>
       </c>
-      <c r="B73" t="str">
-        <v>F</v>
-      </c>
       <c r="C73" t="str">
+        <v>F</v>
+      </c>
+      <c r="D73" t="str">
         <v>4L</v>
       </c>
-      <c r="D73" t="str">
+      <c r="E73" t="str">
         <v>2024 | 4L</v>
       </c>
-      <c r="E73" t="str">
-        <v>ven.</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="F73" t="str">
+        <v>ven.</v>
+      </c>
+      <c r="G73" s="1">
         <v>45730.875</v>
       </c>
-      <c r="G73" t="str">
-        <v>VBC Lausanne</v>
-      </c>
       <c r="H73" t="str">
+        <v>VBC Lausanne</v>
+      </c>
+      <c r="I73" t="str">
         <v>Lausanne II F4</v>
       </c>
-      <c r="I73" t="str">
+      <c r="J73" t="str">
         <v>BOPP F4</v>
       </c>
-      <c r="J73" t="str">
-        <v>Salle omnisports de Grand-Vennes 3</v>
-      </c>
       <c r="K73" t="str">
-        <v>Céleste Fidanza</v>
+        <v>Salle omnisports de Grand-Vennes 3</v>
       </c>
       <c r="L73" t="str">
-        <v>Céleste Fidanza</v>
+        <v>Céleste Fidanza (M23F)</v>
       </c>
       <c r="M73" t="str">
         <v>+41765120923</v>
